--- a/data/pca/factorExposure/factorExposure_2017-01-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01001117734522333</v>
+        <v>-0.01332588722254862</v>
       </c>
       <c r="C2">
-        <v>0.03049624102490701</v>
+        <v>-0.03984897768500437</v>
       </c>
       <c r="D2">
-        <v>-0.02985635125605372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03203669156230773</v>
+      </c>
+      <c r="E2">
+        <v>0.05340989203582284</v>
+      </c>
+      <c r="F2">
+        <v>-0.01294587407489032</v>
+      </c>
+      <c r="G2">
+        <v>-0.1049906879237825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05721665440429761</v>
+        <v>-0.03804727403994469</v>
       </c>
       <c r="C3">
-        <v>0.1096032206135962</v>
+        <v>-0.09215189479268715</v>
       </c>
       <c r="D3">
-        <v>-0.02160497057372784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01893409507100461</v>
+      </c>
+      <c r="E3">
+        <v>0.1043918747028581</v>
+      </c>
+      <c r="F3">
+        <v>-0.01885534396490995</v>
+      </c>
+      <c r="G3">
+        <v>-0.1178783826680396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05706860654513745</v>
+        <v>-0.05532593291269199</v>
       </c>
       <c r="C4">
-        <v>0.06389905752804613</v>
+        <v>-0.06087880871587451</v>
       </c>
       <c r="D4">
-        <v>-0.02603262651664539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02689399297155042</v>
+      </c>
+      <c r="E4">
+        <v>0.05323790244272383</v>
+      </c>
+      <c r="F4">
+        <v>-0.001828990624413939</v>
+      </c>
+      <c r="G4">
+        <v>-0.09609769468699106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01725365581215369</v>
+        <v>-0.03323190384005811</v>
       </c>
       <c r="C6">
-        <v>0.05347753256718034</v>
+        <v>-0.04432842426677538</v>
       </c>
       <c r="D6">
-        <v>-0.02294889212906124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0197875355650901</v>
+      </c>
+      <c r="E6">
+        <v>0.0590704419785985</v>
+      </c>
+      <c r="F6">
+        <v>-0.006989640342444096</v>
+      </c>
+      <c r="G6">
+        <v>-0.08653801528971689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0120182473296449</v>
+        <v>-0.02015366560153254</v>
       </c>
       <c r="C7">
-        <v>0.04050686412802056</v>
+        <v>-0.03629514628171345</v>
       </c>
       <c r="D7">
-        <v>-0.01840212147666298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01546500810437717</v>
+      </c>
+      <c r="E7">
+        <v>0.02563683177620982</v>
+      </c>
+      <c r="F7">
+        <v>0.0003842191842451801</v>
+      </c>
+      <c r="G7">
+        <v>-0.1260705388914203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003719393222480143</v>
+        <v>-0.003743017020200262</v>
       </c>
       <c r="C8">
-        <v>0.008089712911929031</v>
+        <v>-0.0205994326291328</v>
       </c>
       <c r="D8">
-        <v>-0.004027302720439756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004868072086173388</v>
+      </c>
+      <c r="E8">
+        <v>0.03800839623235477</v>
+      </c>
+      <c r="F8">
+        <v>-0.003882699153429806</v>
+      </c>
+      <c r="G8">
+        <v>-0.07204758620102512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02663392889351753</v>
+        <v>-0.03366526291730363</v>
       </c>
       <c r="C9">
-        <v>0.04113764551268493</v>
+        <v>-0.04507244797500078</v>
       </c>
       <c r="D9">
-        <v>-0.01765586196102623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01774866953865487</v>
+      </c>
+      <c r="E9">
+        <v>0.03752324040191293</v>
+      </c>
+      <c r="F9">
+        <v>-0.001060349726807209</v>
+      </c>
+      <c r="G9">
+        <v>-0.1018796932644026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1046593001916959</v>
+        <v>-0.09732864534881185</v>
       </c>
       <c r="C10">
-        <v>-0.1725143007513954</v>
+        <v>0.1900633959307792</v>
       </c>
       <c r="D10">
-        <v>0.05800881445786744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01514721360601712</v>
+      </c>
+      <c r="E10">
+        <v>0.01717833658729376</v>
+      </c>
+      <c r="F10">
+        <v>-0.0267717125312187</v>
+      </c>
+      <c r="G10">
+        <v>-0.05324918876628393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03476550405747336</v>
+        <v>-0.03564326186281262</v>
       </c>
       <c r="C11">
-        <v>0.058643262446146</v>
+        <v>-0.05209050570292266</v>
       </c>
       <c r="D11">
-        <v>-0.006258485065985027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002972465420337756</v>
+      </c>
+      <c r="E11">
+        <v>0.02588345085314762</v>
+      </c>
+      <c r="F11">
+        <v>0.01431722194293857</v>
+      </c>
+      <c r="G11">
+        <v>-0.07660103402021402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03259000809628636</v>
+        <v>-0.03787342520857893</v>
       </c>
       <c r="C12">
-        <v>0.04938082593342668</v>
+        <v>-0.04631815964127579</v>
       </c>
       <c r="D12">
-        <v>-0.01005802551862496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007145353323991934</v>
+      </c>
+      <c r="E12">
+        <v>0.01719311070938074</v>
+      </c>
+      <c r="F12">
+        <v>0.003870975711408213</v>
+      </c>
+      <c r="G12">
+        <v>-0.07555490754951226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.008038890253544737</v>
+        <v>-0.01002354198875775</v>
       </c>
       <c r="C13">
-        <v>0.02678770136938691</v>
+        <v>-0.03535051784469213</v>
       </c>
       <c r="D13">
-        <v>-0.02683940750571362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03014250364285615</v>
+      </c>
+      <c r="E13">
+        <v>0.06446817920433899</v>
+      </c>
+      <c r="F13">
+        <v>-0.01375442748972909</v>
+      </c>
+      <c r="G13">
+        <v>-0.1355509645372814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003954692281868894</v>
+        <v>-0.009012165694498583</v>
       </c>
       <c r="C14">
-        <v>0.02801466376657056</v>
+        <v>-0.02554988601439843</v>
       </c>
       <c r="D14">
-        <v>-0.01281777023710728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01176817437773117</v>
+      </c>
+      <c r="E14">
+        <v>0.0216605620630005</v>
+      </c>
+      <c r="F14">
+        <v>-0.007748182327430335</v>
+      </c>
+      <c r="G14">
+        <v>-0.1161026920913268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02994252400961618</v>
+        <v>-0.03402763474257154</v>
       </c>
       <c r="C16">
-        <v>0.04222810533961373</v>
+        <v>-0.04485679649837781</v>
       </c>
       <c r="D16">
-        <v>-0.003880420119103423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002666003770336562</v>
+      </c>
+      <c r="E16">
+        <v>0.0230669788174418</v>
+      </c>
+      <c r="F16">
+        <v>-0.004645999296043648</v>
+      </c>
+      <c r="G16">
+        <v>-0.08327723359768933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.023781244841628</v>
+        <v>-0.01860075713606933</v>
       </c>
       <c r="C19">
-        <v>0.05392615726683993</v>
+        <v>-0.04640051813227867</v>
       </c>
       <c r="D19">
-        <v>-0.02024932227394174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02302753466773023</v>
+      </c>
+      <c r="E19">
+        <v>0.1005245006600159</v>
+      </c>
+      <c r="F19">
+        <v>-0.01098322969441718</v>
+      </c>
+      <c r="G19">
+        <v>-0.1359340614489873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.007934355318450402</v>
+        <v>-0.01449757211138845</v>
       </c>
       <c r="C20">
-        <v>0.03651984470648008</v>
+        <v>-0.03653835541130403</v>
       </c>
       <c r="D20">
-        <v>-0.01728121153348224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01610357319194653</v>
+      </c>
+      <c r="E20">
+        <v>0.04820827927433381</v>
+      </c>
+      <c r="F20">
+        <v>-0.02626625839266583</v>
+      </c>
+      <c r="G20">
+        <v>-0.108992919482213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.003034088507184658</v>
+        <v>-0.006623832987922898</v>
       </c>
       <c r="C21">
-        <v>0.03325842898058292</v>
+        <v>-0.03202216853055676</v>
       </c>
       <c r="D21">
-        <v>-0.0203031436809597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02230944820204475</v>
+      </c>
+      <c r="E21">
+        <v>0.06681230307019284</v>
+      </c>
+      <c r="F21">
+        <v>-0.01614097077273517</v>
+      </c>
+      <c r="G21">
+        <v>-0.1518447347837862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006967419026017079</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007331599743566274</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002978729736543249</v>
+      </c>
+      <c r="E22">
+        <v>0.02145482923630764</v>
+      </c>
+      <c r="F22">
+        <v>0.004206124271318144</v>
+      </c>
+      <c r="G22">
+        <v>-0.009173687751791863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006723838164496679</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007242210178874088</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002964386699873987</v>
+      </c>
+      <c r="E23">
+        <v>0.02137352322045627</v>
+      </c>
+      <c r="F23">
+        <v>0.003955179436970472</v>
+      </c>
+      <c r="G23">
+        <v>-0.009036934495474909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02347941700010562</v>
+        <v>-0.0302441249402692</v>
       </c>
       <c r="C24">
-        <v>0.04714248712264291</v>
+        <v>-0.04938519990573476</v>
       </c>
       <c r="D24">
-        <v>-0.01071502636441425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007801382294901371</v>
+      </c>
+      <c r="E24">
+        <v>0.02100562542812799</v>
+      </c>
+      <c r="F24">
+        <v>0.00428922123551001</v>
+      </c>
+      <c r="G24">
+        <v>-0.08448561347617843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04043002586342288</v>
+        <v>-0.04308528273707556</v>
       </c>
       <c r="C25">
-        <v>0.05847402282479174</v>
+        <v>-0.05629351810350106</v>
       </c>
       <c r="D25">
-        <v>-0.01548160832507952</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01191014306471751</v>
+      </c>
+      <c r="E25">
+        <v>0.01458301970998148</v>
+      </c>
+      <c r="F25">
+        <v>0.00496602212924686</v>
+      </c>
+      <c r="G25">
+        <v>-0.09133492702997056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.005315734929669274</v>
+        <v>-0.01423354094652856</v>
       </c>
       <c r="C26">
-        <v>0.003559899112397266</v>
+        <v>-0.009453295498414576</v>
       </c>
       <c r="D26">
-        <v>-0.02261267263139002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02466208937974494</v>
+      </c>
+      <c r="E26">
+        <v>0.01630210338370513</v>
+      </c>
+      <c r="F26">
+        <v>-0.005460370773358883</v>
+      </c>
+      <c r="G26">
+        <v>-0.08552896478226134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.128648312234769</v>
+        <v>-0.1275618982514801</v>
       </c>
       <c r="C28">
-        <v>-0.2055469771870981</v>
+        <v>0.2434333946335773</v>
       </c>
       <c r="D28">
-        <v>0.05491677912638052</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006483678223455993</v>
+      </c>
+      <c r="E28">
+        <v>-6.810688476269443e-05</v>
+      </c>
+      <c r="F28">
+        <v>-0.02588371576136723</v>
+      </c>
+      <c r="G28">
+        <v>-0.05262299093468222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01002011210568745</v>
+        <v>-0.007843381749341334</v>
       </c>
       <c r="C29">
-        <v>0.02274583477350271</v>
+        <v>-0.02190165089160593</v>
       </c>
       <c r="D29">
-        <v>-0.01022810582385737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0105283230236752</v>
+      </c>
+      <c r="E29">
+        <v>0.01333398366400023</v>
+      </c>
+      <c r="F29">
+        <v>-0.01223774877820353</v>
+      </c>
+      <c r="G29">
+        <v>-0.1053490786392413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02880544421415277</v>
+        <v>-0.0378771246014823</v>
       </c>
       <c r="C30">
-        <v>0.0694944835896527</v>
+        <v>-0.06218034227256881</v>
       </c>
       <c r="D30">
-        <v>-0.03399382370985964</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0320172605128775</v>
+      </c>
+      <c r="E30">
+        <v>0.07886105051102278</v>
+      </c>
+      <c r="F30">
+        <v>0.01604757098755183</v>
+      </c>
+      <c r="G30">
+        <v>-0.1219541443041244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03914031538588258</v>
+        <v>-0.05364656894445718</v>
       </c>
       <c r="C31">
-        <v>0.02600694868991777</v>
+        <v>-0.03829367160589089</v>
       </c>
       <c r="D31">
-        <v>-0.003417738657283017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004473712694513292</v>
+      </c>
+      <c r="E31">
+        <v>0.003401095471777984</v>
+      </c>
+      <c r="F31">
+        <v>-0.03525381486707239</v>
+      </c>
+      <c r="G31">
+        <v>-0.09912252766753862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003645984495829136</v>
+        <v>-0.001702245026298867</v>
       </c>
       <c r="C32">
-        <v>0.03501317689469917</v>
+        <v>-0.01926233676309888</v>
       </c>
       <c r="D32">
-        <v>0.000637294998417452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0008232437346102585</v>
+      </c>
+      <c r="E32">
+        <v>0.05263982034018492</v>
+      </c>
+      <c r="F32">
+        <v>0.02444628812741412</v>
+      </c>
+      <c r="G32">
+        <v>-0.07332194393033201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02565068667685106</v>
+        <v>-0.02684677785729663</v>
       </c>
       <c r="C33">
-        <v>0.05343174902001434</v>
+        <v>-0.04729747942948537</v>
       </c>
       <c r="D33">
-        <v>-0.01778810332062101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01855061996356023</v>
+      </c>
+      <c r="E33">
+        <v>0.0679614798175658</v>
+      </c>
+      <c r="F33">
+        <v>0.003439505446958382</v>
+      </c>
+      <c r="G33">
+        <v>-0.1586600425436762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04684708402661034</v>
+        <v>-0.04114907005609798</v>
       </c>
       <c r="C34">
-        <v>0.06118837455439792</v>
+        <v>-0.05901109348173374</v>
       </c>
       <c r="D34">
-        <v>0.001649926124672964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003880166519161558</v>
+      </c>
+      <c r="E34">
+        <v>0.01950171919899742</v>
+      </c>
+      <c r="F34">
+        <v>0.01857412437849541</v>
+      </c>
+      <c r="G34">
+        <v>-0.07894683953781508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01041446300099392</v>
+        <v>-0.01480997126577025</v>
       </c>
       <c r="C36">
-        <v>0.00195177675706007</v>
+        <v>-0.005461154749728501</v>
       </c>
       <c r="D36">
-        <v>-0.009857294239647893</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01387946349630509</v>
+      </c>
+      <c r="E36">
+        <v>0.02072870667708071</v>
+      </c>
+      <c r="F36">
+        <v>-0.007396665876510682</v>
+      </c>
+      <c r="G36">
+        <v>-0.09703316993511608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02637987360140907</v>
+        <v>-0.03044502372669049</v>
       </c>
       <c r="C38">
-        <v>0.02063426478147381</v>
+        <v>-0.02396114413410253</v>
       </c>
       <c r="D38">
-        <v>0.008063176365408273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006231723661005116</v>
+      </c>
+      <c r="E38">
+        <v>0.02044543660550978</v>
+      </c>
+      <c r="F38">
+        <v>-0.0125051709775344</v>
+      </c>
+      <c r="G38">
+        <v>-0.09205208612439691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.02536707914974066</v>
+        <v>-0.03624575728420935</v>
       </c>
       <c r="C39">
-        <v>0.08428030018506603</v>
+        <v>-0.07629209721940049</v>
       </c>
       <c r="D39">
-        <v>-0.02151418241333233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0133763896560695</v>
+      </c>
+      <c r="E39">
+        <v>0.03989941227062516</v>
+      </c>
+      <c r="F39">
+        <v>0.0131432804101969</v>
+      </c>
+      <c r="G39">
+        <v>-0.09254196741465848</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01437228049980399</v>
+        <v>-0.01580330025987073</v>
       </c>
       <c r="C40">
-        <v>0.02210206146545739</v>
+        <v>-0.03343953995281078</v>
       </c>
       <c r="D40">
-        <v>-0.01313355263663037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01569140944812307</v>
+      </c>
+      <c r="E40">
+        <v>0.03607282659615339</v>
+      </c>
+      <c r="F40">
+        <v>-0.02606182377161595</v>
+      </c>
+      <c r="G40">
+        <v>-0.1215225150601336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01175493791658317</v>
+        <v>-0.01861492414284381</v>
       </c>
       <c r="C41">
-        <v>-0.00391492503945271</v>
+        <v>0.0009202980064344437</v>
       </c>
       <c r="D41">
-        <v>-0.001010269339912051</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005862339579405542</v>
+      </c>
+      <c r="E41">
+        <v>0.01754848015717616</v>
+      </c>
+      <c r="F41">
+        <v>-0.0138319251824606</v>
+      </c>
+      <c r="G41">
+        <v>-0.09105233427714167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.008743283898562208</v>
+        <v>-0.005074675105101532</v>
       </c>
       <c r="C42">
-        <v>0.03931625619880984</v>
+        <v>-0.02913150088370076</v>
       </c>
       <c r="D42">
-        <v>-0.09701540483863351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08436456665853144</v>
+      </c>
+      <c r="E42">
+        <v>-0.006508971625535229</v>
+      </c>
+      <c r="F42">
+        <v>-0.03096045186457252</v>
+      </c>
+      <c r="G42">
+        <v>0.02287051530276233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02962947070497079</v>
+        <v>-0.03311698024797211</v>
       </c>
       <c r="C43">
-        <v>0.01068849529310204</v>
+        <v>-0.01292169061679993</v>
       </c>
       <c r="D43">
-        <v>-0.001297071859433121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007437940140713236</v>
+      </c>
+      <c r="E43">
+        <v>0.03576469628444848</v>
+      </c>
+      <c r="F43">
+        <v>-0.01007948004787173</v>
+      </c>
+      <c r="G43">
+        <v>-0.1188188130783702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01416608385524991</v>
+        <v>-0.01318657069183835</v>
       </c>
       <c r="C44">
-        <v>0.05601373691195719</v>
+        <v>-0.05171249891039645</v>
       </c>
       <c r="D44">
-        <v>-0.01189025458807885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.008777155104865196</v>
+      </c>
+      <c r="E44">
+        <v>0.03947870337742529</v>
+      </c>
+      <c r="F44">
+        <v>-0.01758124212469855</v>
+      </c>
+      <c r="G44">
+        <v>-0.121006912863999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.001594006485893753</v>
+        <v>-0.01016202951709326</v>
       </c>
       <c r="C46">
-        <v>0.007629292525720242</v>
+        <v>-0.0151355011424414</v>
       </c>
       <c r="D46">
-        <v>-0.01246381836522962</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01339152715609375</v>
+      </c>
+      <c r="E46">
+        <v>0.005752227502801066</v>
+      </c>
+      <c r="F46">
+        <v>-0.01667095642118653</v>
+      </c>
+      <c r="G46">
+        <v>-0.11311807347804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.06207303358509918</v>
+        <v>-0.08207036944613462</v>
       </c>
       <c r="C47">
-        <v>0.06988449230773496</v>
+        <v>-0.07135038598836989</v>
       </c>
       <c r="D47">
-        <v>-0.001690916532845671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004760333401353254</v>
+      </c>
+      <c r="E47">
+        <v>-0.005425301679290609</v>
+      </c>
+      <c r="F47">
+        <v>-0.04413700273599302</v>
+      </c>
+      <c r="G47">
+        <v>-0.08983752690702737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01214676629360361</v>
+        <v>-0.01781886750879547</v>
       </c>
       <c r="C48">
-        <v>0.009820965833634218</v>
+        <v>-0.009841273115419606</v>
       </c>
       <c r="D48">
-        <v>-0.001040666483815173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00352419009714649</v>
+      </c>
+      <c r="E48">
+        <v>0.01571918514557945</v>
+      </c>
+      <c r="F48">
+        <v>-0.02004508257928603</v>
+      </c>
+      <c r="G48">
+        <v>-0.1089100262061252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07179066249338009</v>
+        <v>-0.07565112605090871</v>
       </c>
       <c r="C50">
-        <v>0.06951447129739334</v>
+        <v>-0.06816019922230304</v>
       </c>
       <c r="D50">
-        <v>-0.0009187264818419154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001234690124215044</v>
+      </c>
+      <c r="E50">
+        <v>0.001973863289697012</v>
+      </c>
+      <c r="F50">
+        <v>-0.04262376846596167</v>
+      </c>
+      <c r="G50">
+        <v>-0.1040003697982661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01405056777355704</v>
+        <v>-0.01154712797225016</v>
       </c>
       <c r="C51">
-        <v>0.03933319019320456</v>
+        <v>-0.03273824806472263</v>
       </c>
       <c r="D51">
-        <v>-0.01242362457871507</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01233992933652075</v>
+      </c>
+      <c r="E51">
+        <v>0.04099060396119007</v>
+      </c>
+      <c r="F51">
+        <v>0.009808516178733455</v>
+      </c>
+      <c r="G51">
+        <v>-0.1120314987805415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09057584802662755</v>
+        <v>-0.08444903314443629</v>
       </c>
       <c r="C53">
-        <v>0.08617774760498947</v>
+        <v>-0.08376624639166332</v>
       </c>
       <c r="D53">
-        <v>-0.001067786793658421</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00387796849068461</v>
+      </c>
+      <c r="E53">
+        <v>-0.02604868713000615</v>
+      </c>
+      <c r="F53">
+        <v>-0.04761677951548127</v>
+      </c>
+      <c r="G53">
+        <v>-0.09442444691521663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02663281459535633</v>
+        <v>-0.03168752719927211</v>
       </c>
       <c r="C54">
-        <v>0.00532853188589165</v>
+        <v>-0.01574331003460921</v>
       </c>
       <c r="D54">
-        <v>0.005592231871034253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.000297501036476701</v>
+      </c>
+      <c r="E54">
+        <v>0.02729544562220036</v>
+      </c>
+      <c r="F54">
+        <v>-0.0125046277711375</v>
+      </c>
+      <c r="G54">
+        <v>-0.1132255494275433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.06682937797742752</v>
+        <v>-0.07787424631794791</v>
       </c>
       <c r="C55">
-        <v>0.07272726441956359</v>
+        <v>-0.06797949265996092</v>
       </c>
       <c r="D55">
-        <v>-0.001405733642228262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005845444808601395</v>
+      </c>
+      <c r="E55">
+        <v>-0.02901454885609125</v>
+      </c>
+      <c r="F55">
+        <v>-0.04848818904106668</v>
+      </c>
+      <c r="G55">
+        <v>-0.07173908024053523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1353889228005901</v>
+        <v>-0.139290324964647</v>
       </c>
       <c r="C56">
-        <v>0.1121076811586422</v>
+        <v>-0.1046614372314158</v>
       </c>
       <c r="D56">
-        <v>0.006401082222012469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01301474232960904</v>
+      </c>
+      <c r="E56">
+        <v>-0.03318352048890797</v>
+      </c>
+      <c r="F56">
+        <v>-0.05439500845227571</v>
+      </c>
+      <c r="G56">
+        <v>-0.05526310491512975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01012454763836181</v>
+        <v>-0.003813487542179224</v>
       </c>
       <c r="C57">
-        <v>0.005430278575642307</v>
+        <v>-0.003795961432940897</v>
       </c>
       <c r="D57">
-        <v>-0.02198411623962883</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02305125622002301</v>
+      </c>
+      <c r="E57">
+        <v>0.02539667479017548</v>
+      </c>
+      <c r="F57">
+        <v>-0.00017275083563476</v>
+      </c>
+      <c r="G57">
+        <v>-0.01223168720329365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03575135872440755</v>
+        <v>-0.0389876002823759</v>
       </c>
       <c r="C58">
-        <v>0.06759245531963402</v>
+        <v>-0.03069695757723243</v>
       </c>
       <c r="D58">
-        <v>-0.008470686569781113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03694276315893099</v>
+      </c>
+      <c r="E58">
+        <v>0.7557740638889142</v>
+      </c>
+      <c r="F58">
+        <v>-0.5415525447671342</v>
+      </c>
+      <c r="G58">
+        <v>0.3017615791664207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1728949411561212</v>
+        <v>-0.1556490904693298</v>
       </c>
       <c r="C59">
-        <v>-0.1961195084142648</v>
+        <v>0.2090627563543288</v>
       </c>
       <c r="D59">
-        <v>0.06534886649893709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0102703531865336</v>
+      </c>
+      <c r="E59">
+        <v>0.02288838709544554</v>
+      </c>
+      <c r="F59">
+        <v>-0.007616725048244707</v>
+      </c>
+      <c r="G59">
+        <v>-0.03664659757113679</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2945751744925955</v>
+        <v>-0.285767555499409</v>
       </c>
       <c r="C60">
-        <v>0.1323976625420849</v>
+        <v>-0.1059520668044633</v>
       </c>
       <c r="D60">
-        <v>-0.0002176247003751589</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01702885582844397</v>
+      </c>
+      <c r="E60">
+        <v>0.1080391552053668</v>
+      </c>
+      <c r="F60">
+        <v>0.3107022182952985</v>
+      </c>
+      <c r="G60">
+        <v>0.1668003932429239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0262479093069455</v>
+        <v>-0.03913440542998872</v>
       </c>
       <c r="C61">
-        <v>0.06539090929382242</v>
+        <v>-0.0627980577598712</v>
       </c>
       <c r="D61">
-        <v>-0.01179717613401527</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007213963160587991</v>
+      </c>
+      <c r="E61">
+        <v>0.03737898099464689</v>
+      </c>
+      <c r="F61">
+        <v>0.007040711038266798</v>
+      </c>
+      <c r="G61">
+        <v>-0.09079242589330461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01200622231492453</v>
+        <v>-0.01510077623079585</v>
       </c>
       <c r="C63">
-        <v>0.02928809154737365</v>
+        <v>-0.02761359164175407</v>
       </c>
       <c r="D63">
-        <v>-0.01126343737561591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00917145262963978</v>
+      </c>
+      <c r="E63">
+        <v>0.01123132356623354</v>
+      </c>
+      <c r="F63">
+        <v>-0.01629418564628742</v>
+      </c>
+      <c r="G63">
+        <v>-0.09326800581802569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04383282929598713</v>
+        <v>-0.05015687341128332</v>
       </c>
       <c r="C64">
-        <v>0.03374470044615836</v>
+        <v>-0.04704219786179147</v>
       </c>
       <c r="D64">
-        <v>-0.005055302045459904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006365013295061736</v>
+      </c>
+      <c r="E64">
+        <v>0.009031684754511502</v>
+      </c>
+      <c r="F64">
+        <v>0.005008102916048548</v>
+      </c>
+      <c r="G64">
+        <v>-0.09506215387267802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0734733509178665</v>
+        <v>-0.07094460471140047</v>
       </c>
       <c r="C65">
-        <v>0.08024173634138976</v>
+        <v>-0.05316393340358721</v>
       </c>
       <c r="D65">
-        <v>-0.02059038130971698</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01915088978157953</v>
+      </c>
+      <c r="E65">
+        <v>0.06220625300313682</v>
+      </c>
+      <c r="F65">
+        <v>0.01132203507704952</v>
+      </c>
+      <c r="G65">
+        <v>-0.0390292956158873</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.04264405105764688</v>
+        <v>-0.04735771409631057</v>
       </c>
       <c r="C66">
-        <v>0.1293673938832249</v>
+        <v>-0.1025657926472245</v>
       </c>
       <c r="D66">
-        <v>-0.0269652067076338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0142385708656999</v>
+      </c>
+      <c r="E66">
+        <v>0.0628883524155784</v>
+      </c>
+      <c r="F66">
+        <v>0.02180380159940899</v>
+      </c>
+      <c r="G66">
+        <v>-0.09719195080267948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0551843186899519</v>
+        <v>-0.05426283674255707</v>
       </c>
       <c r="C67">
-        <v>0.02713233808460004</v>
+        <v>-0.02963766671318317</v>
       </c>
       <c r="D67">
-        <v>0.008025268371631476</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005423717484380025</v>
+      </c>
+      <c r="E67">
+        <v>0.006888009933112694</v>
+      </c>
+      <c r="F67">
+        <v>-0.008331715541520899</v>
+      </c>
+      <c r="G67">
+        <v>-0.07765031478204053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1508845722736609</v>
+        <v>-0.1562436380999725</v>
       </c>
       <c r="C68">
-        <v>-0.2554862587380015</v>
+        <v>0.2701297552510376</v>
       </c>
       <c r="D68">
-        <v>0.0531336707949836</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005651623605309844</v>
+      </c>
+      <c r="E68">
+        <v>-0.004092598356462787</v>
+      </c>
+      <c r="F68">
+        <v>-0.04383641280059396</v>
+      </c>
+      <c r="G68">
+        <v>-0.02136905592081047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.07330415714322476</v>
+        <v>-0.08391198424043303</v>
       </c>
       <c r="C69">
-        <v>0.06686118661637258</v>
+        <v>-0.07324630447681411</v>
       </c>
       <c r="D69">
-        <v>0.004907036443278468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0082795445305964</v>
+      </c>
+      <c r="E69">
+        <v>-0.01228311223529355</v>
+      </c>
+      <c r="F69">
+        <v>-0.02100391091985199</v>
+      </c>
+      <c r="G69">
+        <v>-0.1018617696015859</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1503626759976679</v>
+        <v>-0.1419905764618497</v>
       </c>
       <c r="C71">
-        <v>-0.2024286327776231</v>
+        <v>0.2301478822098417</v>
       </c>
       <c r="D71">
-        <v>0.05492612184717053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002329437910716799</v>
+      </c>
+      <c r="E71">
+        <v>0.02849043017589351</v>
+      </c>
+      <c r="F71">
+        <v>-0.02910226284074477</v>
+      </c>
+      <c r="G71">
+        <v>-0.06409397333464424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0638848825486083</v>
+        <v>-0.08377309199923139</v>
       </c>
       <c r="C72">
-        <v>0.07105291891074395</v>
+        <v>-0.06460347236320983</v>
       </c>
       <c r="D72">
-        <v>0.003863437847622965</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007199292069038416</v>
+      </c>
+      <c r="E72">
+        <v>0.002777150609675517</v>
+      </c>
+      <c r="F72">
+        <v>0.0173913934613117</v>
+      </c>
+      <c r="G72">
+        <v>-0.08817862075208382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4166094722420103</v>
+        <v>-0.3663061447272117</v>
       </c>
       <c r="C73">
-        <v>0.1722362620532158</v>
+        <v>-0.1055150814299682</v>
       </c>
       <c r="D73">
-        <v>0.004978137742530762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03038197662535314</v>
+      </c>
+      <c r="E73">
+        <v>0.2478121701315563</v>
+      </c>
+      <c r="F73">
+        <v>0.5457139962787291</v>
+      </c>
+      <c r="G73">
+        <v>0.3287264402900298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.09995504458400004</v>
+        <v>-0.1072150276818634</v>
       </c>
       <c r="C74">
-        <v>0.1305433436982852</v>
+        <v>-0.1057459720066628</v>
       </c>
       <c r="D74">
-        <v>-0.003566887081029231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009354304460644615</v>
+      </c>
+      <c r="E74">
+        <v>-0.00671306873499898</v>
+      </c>
+      <c r="F74">
+        <v>-0.05672971656339947</v>
+      </c>
+      <c r="G74">
+        <v>-0.07633081887087355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2328365397946732</v>
+        <v>-0.2504652234565358</v>
       </c>
       <c r="C75">
-        <v>0.1686501295714058</v>
+        <v>-0.1500525929529744</v>
       </c>
       <c r="D75">
-        <v>0.01750793200310329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03236588059876026</v>
+      </c>
+      <c r="E75">
+        <v>-0.09484443416291408</v>
+      </c>
+      <c r="F75">
+        <v>-0.1307885886622535</v>
+      </c>
+      <c r="G75">
+        <v>-0.01872678335033826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1128859439333238</v>
+        <v>-0.1198127259761095</v>
       </c>
       <c r="C76">
-        <v>0.1273701954970872</v>
+        <v>-0.1075719132515152</v>
       </c>
       <c r="D76">
-        <v>0.005634560187866999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01836103110800608</v>
+      </c>
+      <c r="E76">
+        <v>-0.03793923047944715</v>
+      </c>
+      <c r="F76">
+        <v>-0.08031335700297866</v>
+      </c>
+      <c r="G76">
+        <v>-0.06989734556370197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0526494976208632</v>
+        <v>-0.06919151762184098</v>
       </c>
       <c r="C77">
-        <v>0.06274365054807046</v>
+        <v>-0.0495993700485735</v>
       </c>
       <c r="D77">
-        <v>-0.01242615080665317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0124978770066398</v>
+      </c>
+      <c r="E77">
+        <v>0.06950143699446858</v>
+      </c>
+      <c r="F77">
+        <v>-0.005637747919487769</v>
+      </c>
+      <c r="G77">
+        <v>-0.08806849998374322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04309709215126704</v>
+        <v>-0.04159587918536976</v>
       </c>
       <c r="C78">
-        <v>0.05465744184495541</v>
+        <v>-0.05269456962187594</v>
       </c>
       <c r="D78">
-        <v>-0.007556932384113395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.009419297260817607</v>
+      </c>
+      <c r="E78">
+        <v>0.05425261957365152</v>
+      </c>
+      <c r="F78">
+        <v>0.02858950126564689</v>
+      </c>
+      <c r="G78">
+        <v>-0.09659770156783577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.001344910616321907</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0008102649232823971</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.001043664617150921</v>
+      </c>
+      <c r="E79">
+        <v>0.00856161746317074</v>
+      </c>
+      <c r="F79">
+        <v>-0.000924244302713017</v>
+      </c>
+      <c r="G79">
+        <v>-0.00906886508171994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05035181733302146</v>
+        <v>-0.04098100366407131</v>
       </c>
       <c r="C80">
-        <v>0.06353543128630704</v>
+        <v>-0.04844324611881926</v>
       </c>
       <c r="D80">
-        <v>-0.01642308325064579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01500886419624205</v>
+      </c>
+      <c r="E80">
+        <v>0.04155056380859461</v>
+      </c>
+      <c r="F80">
+        <v>-0.001521136526301387</v>
+      </c>
+      <c r="G80">
+        <v>-0.05104960978118623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1259788510530106</v>
+        <v>-0.1398380426870924</v>
       </c>
       <c r="C81">
-        <v>0.09945223067706423</v>
+        <v>-0.09285205275694938</v>
       </c>
       <c r="D81">
-        <v>0.007015650119511011</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01584956111815916</v>
+      </c>
+      <c r="E81">
+        <v>-0.05863998689938487</v>
+      </c>
+      <c r="F81">
+        <v>-0.103799963210052</v>
+      </c>
+      <c r="G81">
+        <v>-0.03849250063562298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.04521900010285462</v>
+        <v>-0.1674184715730817</v>
       </c>
       <c r="C82">
-        <v>0.03891890901063692</v>
+        <v>-0.1170625761218556</v>
       </c>
       <c r="D82">
-        <v>-0.0001476991257064692</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01819792993122185</v>
+      </c>
+      <c r="E82">
+        <v>-0.1712592039380077</v>
+      </c>
+      <c r="F82">
+        <v>-0.05558976585946616</v>
+      </c>
+      <c r="G82">
+        <v>-0.02617154318112308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02350286135918832</v>
+        <v>-0.03332589516221853</v>
       </c>
       <c r="C83">
-        <v>0.01887359739776698</v>
+        <v>-0.02919240736176654</v>
       </c>
       <c r="D83">
-        <v>-0.004768975354430742</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.00788893758933929</v>
+      </c>
+      <c r="E83">
+        <v>0.04226512565618834</v>
+      </c>
+      <c r="F83">
+        <v>0.03020783658747633</v>
+      </c>
+      <c r="G83">
+        <v>-0.05152228388024067</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2349491790187708</v>
+        <v>-0.2116492681313377</v>
       </c>
       <c r="C85">
-        <v>0.1749939173790501</v>
+        <v>-0.1403005546238003</v>
       </c>
       <c r="D85">
-        <v>0.006850817726446671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01865918348119398</v>
+      </c>
+      <c r="E85">
+        <v>-0.1038618579001712</v>
+      </c>
+      <c r="F85">
+        <v>-0.06131645646108094</v>
+      </c>
+      <c r="G85">
+        <v>0.01918787358279345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008625030853190956</v>
+        <v>-0.01133814900757688</v>
       </c>
       <c r="C86">
-        <v>0.02320501407879375</v>
+        <v>-0.02525162101099161</v>
       </c>
       <c r="D86">
-        <v>-0.00952801495664659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01470126663273323</v>
+      </c>
+      <c r="E86">
+        <v>0.07599046314273949</v>
+      </c>
+      <c r="F86">
+        <v>0.02213108768740335</v>
+      </c>
+      <c r="G86">
+        <v>-0.1709643232771581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01185181983049346</v>
+        <v>-0.02105597610637705</v>
       </c>
       <c r="C87">
-        <v>0.02422264894487638</v>
+        <v>-0.01526456676756819</v>
       </c>
       <c r="D87">
-        <v>-0.01105194731287083</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0144855066520735</v>
+      </c>
+      <c r="E87">
+        <v>0.1016741946485474</v>
+      </c>
+      <c r="F87">
+        <v>-0.0256660923406101</v>
+      </c>
+      <c r="G87">
+        <v>-0.1084885661513434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.08993357870415047</v>
+        <v>-0.08954686154433816</v>
       </c>
       <c r="C88">
-        <v>0.06343290593012167</v>
+        <v>-0.06544098555448268</v>
       </c>
       <c r="D88">
-        <v>-0.02272750682161924</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02281284931872137</v>
+      </c>
+      <c r="E88">
+        <v>0.005680046367851009</v>
+      </c>
+      <c r="F88">
+        <v>-0.01749105021818013</v>
+      </c>
+      <c r="G88">
+        <v>-0.1032752863289094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2553923983556035</v>
+        <v>-0.2275895674411823</v>
       </c>
       <c r="C89">
-        <v>-0.3541086025897562</v>
+        <v>0.3722268349641008</v>
       </c>
       <c r="D89">
-        <v>0.08883369502640211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0007605270103526642</v>
+      </c>
+      <c r="E89">
+        <v>-0.02489357019652732</v>
+      </c>
+      <c r="F89">
+        <v>-0.01434358941774071</v>
+      </c>
+      <c r="G89">
+        <v>-0.07791201301768851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2221969914791682</v>
+        <v>-0.206216899053743</v>
       </c>
       <c r="C90">
-        <v>-0.3077983043816213</v>
+        <v>0.315599405606847</v>
       </c>
       <c r="D90">
-        <v>0.08138040532932457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.00432616026465192</v>
+      </c>
+      <c r="E90">
+        <v>-0.01186508429604132</v>
+      </c>
+      <c r="F90">
+        <v>-0.04911429392169327</v>
+      </c>
+      <c r="G90">
+        <v>-0.0486413339240297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1823788408602423</v>
+        <v>-0.1864260899739716</v>
       </c>
       <c r="C91">
-        <v>0.1316411185553847</v>
+        <v>-0.1356759765401089</v>
       </c>
       <c r="D91">
-        <v>0.01528734113189177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02348281134761549</v>
+      </c>
+      <c r="E91">
+        <v>-0.07894905420045714</v>
+      </c>
+      <c r="F91">
+        <v>-0.1027232847095621</v>
+      </c>
+      <c r="G91">
+        <v>-0.04168485065735085</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2118534118563728</v>
+        <v>-0.1891519650361577</v>
       </c>
       <c r="C92">
-        <v>-0.2231882159066571</v>
+        <v>0.2712182179837717</v>
       </c>
       <c r="D92">
-        <v>0.0996695669037953</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03908294780034774</v>
+      </c>
+      <c r="E92">
+        <v>0.01782022669324766</v>
+      </c>
+      <c r="F92">
+        <v>-0.05952847204089402</v>
+      </c>
+      <c r="G92">
+        <v>-0.07342219971559988</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2390562999733469</v>
+        <v>-0.2284926779796294</v>
       </c>
       <c r="C93">
-        <v>-0.2902772833977167</v>
+        <v>0.3130660132411669</v>
       </c>
       <c r="D93">
-        <v>0.08603982540457941</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01021849058676953</v>
+      </c>
+      <c r="E93">
+        <v>0.002210958534192166</v>
+      </c>
+      <c r="F93">
+        <v>-0.03879173111090246</v>
+      </c>
+      <c r="G93">
+        <v>-0.05749657629654315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2473044211176725</v>
+        <v>-0.3340361942357158</v>
       </c>
       <c r="C94">
-        <v>0.1705418269710961</v>
+        <v>-0.1978787788515728</v>
       </c>
       <c r="D94">
-        <v>-0.002390122111432787</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03067247019852866</v>
+      </c>
+      <c r="E94">
+        <v>-0.3736386169272464</v>
+      </c>
+      <c r="F94">
+        <v>-0.3994350364003477</v>
+      </c>
+      <c r="G94">
+        <v>0.3716934882435926</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06409420295082938</v>
+        <v>-0.08727447789608699</v>
       </c>
       <c r="C95">
-        <v>0.1114575892762167</v>
+        <v>-0.06995000370619651</v>
       </c>
       <c r="D95">
-        <v>-0.005326246485114572</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.007516267776873548</v>
+      </c>
+      <c r="E95">
+        <v>0.1230145109523273</v>
+      </c>
+      <c r="F95">
+        <v>0.1481963832379035</v>
+      </c>
+      <c r="G95">
+        <v>-0.04929141492243942</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2010074034096906</v>
+        <v>-0.1912005532874263</v>
       </c>
       <c r="C98">
-        <v>0.07515515048424688</v>
+        <v>-0.05100168297504771</v>
       </c>
       <c r="D98">
-        <v>0.02785741221495365</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009222963597955384</v>
+      </c>
+      <c r="E98">
+        <v>0.1223632463178648</v>
+      </c>
+      <c r="F98">
+        <v>0.1951126824613052</v>
+      </c>
+      <c r="G98">
+        <v>0.05448239828790898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009767574741008232</v>
+        <v>-0.007687663589842548</v>
       </c>
       <c r="C101">
-        <v>0.02303586211109031</v>
+        <v>-0.02178190498399271</v>
       </c>
       <c r="D101">
-        <v>-0.01016857913423879</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01034246540004548</v>
+      </c>
+      <c r="E101">
+        <v>0.01284938855350777</v>
+      </c>
+      <c r="F101">
+        <v>-0.01307615584329525</v>
+      </c>
+      <c r="G101">
+        <v>-0.1050006247013633</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1094543664334005</v>
+        <v>-0.1210009169193364</v>
       </c>
       <c r="C102">
-        <v>0.08446622595342465</v>
+        <v>-0.09138839673258928</v>
       </c>
       <c r="D102">
-        <v>-0.006578670177444523</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0004745196360906033</v>
+      </c>
+      <c r="E102">
+        <v>-0.04771196917554945</v>
+      </c>
+      <c r="F102">
+        <v>-0.02251042608265625</v>
+      </c>
+      <c r="G102">
+        <v>-0.02004229831924543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1268214714975177</v>
+        <v>-0.02048095875182991</v>
       </c>
       <c r="C104">
-        <v>-0.195857076029646</v>
+        <v>0.02772743494964557</v>
       </c>
       <c r="D104">
-        <v>-0.9633637369415302</v>
+        <v>-0.9858776713920611</v>
+      </c>
+      <c r="E104">
+        <v>-0.08877816664498847</v>
+      </c>
+      <c r="F104">
+        <v>-0.0235648434728732</v>
+      </c>
+      <c r="G104">
+        <v>0.03834820203675279</v>
       </c>
     </row>
   </sheetData>
